--- a/trunk/OSAMS/fileupload/group3_test.xlsx
+++ b/trunk/OSAMS/fileupload/group3_test.xlsx
@@ -927,7 +927,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
